--- a/public/standardFormats/students.xlsx
+++ b/public/standardFormats/students.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="67">
   <si>
     <t xml:space="preserve">username</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t xml:space="preserve">password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PH</t>
   </si>
   <si>
     <t xml:space="preserve">Chirag Hemant Bahirat </t>
@@ -228,7 +231,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -250,13 +253,27 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFC9211E"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -293,7 +310,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -306,6 +323,18 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -315,6 +344,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FFC9211E"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -323,19 +412,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K9" activeCellId="0" sqref="K9"/>
+      <selection pane="topLeft" activeCell="I21" activeCellId="0" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="6.98"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="29.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="9.35"/>
@@ -345,26 +434,29 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -372,13 +464,13 @@
         <v>2020214</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>6</v>
@@ -387,7 +479,7 @@
         <v>7218480794</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H2" s="1" t="n">
         <v>646868</v>
@@ -398,13 +490,13 @@
         <v>2020215</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>6</v>
@@ -413,7 +505,7 @@
         <v>9130739581</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" s="1" t="n">
         <v>578443</v>
@@ -424,13 +516,13 @@
         <v>2020216</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" s="1" t="n">
         <v>6</v>
@@ -439,7 +531,7 @@
         <v>8263076847</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H4" s="1" t="n">
         <v>811410</v>
@@ -450,13 +542,13 @@
         <v>2020217</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" s="1" t="n">
         <v>6</v>
@@ -465,7 +557,7 @@
         <v>7249534954</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H5" s="1" t="n">
         <v>946919</v>
@@ -476,13 +568,13 @@
         <v>2020218</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" s="1" t="n">
         <v>6</v>
@@ -491,7 +583,7 @@
         <v>7888259752</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H6" s="1" t="n">
         <v>896986</v>
@@ -502,13 +594,13 @@
         <v>2020219</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" s="1" t="n">
         <v>6</v>
@@ -517,10 +609,13 @@
         <v>7741942471</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H7" s="1" t="n">
         <v>105112</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -528,13 +623,13 @@
         <v>2020220</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" s="1" t="n">
         <v>6</v>
@@ -543,7 +638,7 @@
         <v>9689967772</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H8" s="1" t="n">
         <v>335268</v>
@@ -554,13 +649,13 @@
         <v>2020221</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" s="1" t="n">
         <v>6</v>
@@ -569,7 +664,7 @@
         <v>9657298808</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H9" s="1" t="n">
         <v>661627</v>
@@ -580,13 +675,13 @@
         <v>2020222</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>6</v>
@@ -595,7 +690,7 @@
         <v>9527029821</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H10" s="1" t="n">
         <v>302086</v>
@@ -606,13 +701,13 @@
         <v>2020223</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" s="1" t="n">
         <v>6</v>
@@ -621,7 +716,7 @@
         <v>9325995918</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H11" s="1" t="n">
         <v>790981</v>
@@ -632,13 +727,13 @@
         <v>2020224</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" s="1" t="n">
         <v>6</v>
@@ -647,7 +742,7 @@
         <v>7972861089</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H12" s="1" t="n">
         <v>465278</v>
@@ -658,13 +753,13 @@
         <v>2020225</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E13" s="1" t="n">
         <v>6</v>
@@ -673,7 +768,7 @@
         <v>9075921646</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H13" s="1" t="n">
         <v>868863</v>
@@ -684,13 +779,13 @@
         <v>2020226</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E14" s="1" t="n">
         <v>6</v>
@@ -699,7 +794,7 @@
         <v>7499249194</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H14" s="1" t="n">
         <v>617038</v>
@@ -710,13 +805,13 @@
         <v>2020227</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E15" s="1" t="n">
         <v>6</v>
@@ -725,7 +820,7 @@
         <v>9834524338</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H15" s="1" t="n">
         <v>765182</v>
@@ -736,13 +831,13 @@
         <v>2020228</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" s="1" t="n">
         <v>6</v>
@@ -751,7 +846,7 @@
         <v>9284218774</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H16" s="1" t="n">
         <v>396841</v>
@@ -762,13 +857,13 @@
         <v>2020229</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E17" s="1" t="n">
         <v>6</v>
@@ -777,7 +872,7 @@
         <v>7517025073</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H17" s="1" t="n">
         <v>266150</v>
@@ -788,13 +883,13 @@
         <v>2020230</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E18" s="1" t="n">
         <v>6</v>
@@ -803,7 +898,7 @@
         <v>9158103746</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H18" s="1" t="n">
         <v>448661</v>
@@ -814,13 +909,13 @@
         <v>2020231</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E19" s="1" t="n">
         <v>6</v>
@@ -829,7 +924,7 @@
         <v>7499804774</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" s="1" t="n">
         <v>811538</v>
@@ -840,13 +935,13 @@
         <v>2020232</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E20" s="1" t="n">
         <v>6</v>
@@ -855,7 +950,7 @@
         <v>9146126224</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H20" s="1" t="n">
         <v>860946</v>
@@ -866,13 +961,13 @@
         <v>2020233</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E21" s="1" t="n">
         <v>6</v>
@@ -881,10 +976,13 @@
         <v>7666743647</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H21" s="1" t="n">
         <v>595756</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -892,13 +990,13 @@
         <v>2020234</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E22" s="1" t="n">
         <v>6</v>
@@ -907,7 +1005,7 @@
         <v>7499835471</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H22" s="1" t="n">
         <v>544973</v>
@@ -918,13 +1016,13 @@
         <v>2020235</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E23" s="1" t="n">
         <v>6</v>
@@ -933,7 +1031,7 @@
         <v>8208566583</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H23" s="1" t="n">
         <v>616964</v>
@@ -944,13 +1042,13 @@
         <v>2020236</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E24" s="1" t="n">
         <v>6</v>
@@ -959,7 +1057,7 @@
         <v>8485839968</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H24" s="1" t="n">
         <v>849653</v>
@@ -970,13 +1068,13 @@
         <v>2020237</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E25" s="1" t="n">
         <v>6</v>
@@ -985,7 +1083,7 @@
         <v>9689469636</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H25" s="1" t="n">
         <v>578983</v>
@@ -996,13 +1094,13 @@
         <v>2020238</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E26" s="1" t="n">
         <v>6</v>
@@ -1011,7 +1109,7 @@
         <v>9373217430</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H26" s="1" t="n">
         <v>919849</v>
@@ -1022,13 +1120,13 @@
         <v>2020239</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E27" s="1" t="n">
         <v>6</v>
@@ -1037,7 +1135,7 @@
         <v>9067026120</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H27" s="1" t="n">
         <v>673830</v>
@@ -1048,13 +1146,13 @@
         <v>2020240</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E28" s="1" t="n">
         <v>6</v>
@@ -1063,7 +1161,7 @@
         <v>9923277634</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H28" s="1" t="n">
         <v>645678</v>
